--- a/SEA_MES/CoFAS.NEW.MES/작업지시명세서.xlsx
+++ b/SEA_MES/CoFAS.NEW.MES/작업지시명세서.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t xml:space="preserve">작업지시서의 명세서 </t>
   </si>
@@ -43,10 +43,10 @@
     <t>BEST</t>
   </si>
   <si>
-    <t>원재료</t>
+    <t>제품 생산량</t>
   </si>
   <si>
-    <t>사용량</t>
+    <t>원재료</t>
   </si>
   <si>
     <t>부재료</t>
@@ -58,7 +58,7 @@
     <t>공정비</t>
   </si>
   <si>
-    <t>성능가동율</t>
+    <t>성능가동율(시간당생산량)</t>
   </si>
   <si>
     <t>직접노무비</t>
@@ -67,7 +67,7 @@
     <t>간접노무비</t>
   </si>
   <si>
-    <t>종합가동율</t>
+    <t>종합가동율(시간당생산량)</t>
   </si>
   <si>
     <t>설비감상비</t>
@@ -100,6 +100,9 @@
     <t>일반관리비</t>
   </si>
   <si>
+    <t>32.92 %</t>
+  </si>
+  <si>
     <t>내부가 합계</t>
   </si>
 </sst>
@@ -115,7 +118,7 @@
     <numFmt numFmtId="168" formatCode="0.00_ "/>
     <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="17">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -202,18 +205,13 @@
       <name val="Malgun Gothic"/>
     </font>
     <font>
-      <sz val="10.0"/>
-      <color theme="0"/>
-      <name val="Malgun Gothic"/>
-    </font>
-    <font>
       <b/>
       <sz val="10.0"/>
       <color rgb="FF0070C0"/>
       <name val="Malgun Gothic"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,8 +230,14 @@
         <bgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFEFEF"/>
+        <bgColor rgb="FFEFEFEF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border/>
     <border>
       <left style="thin">
@@ -431,6 +435,20 @@
       </bottom>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFA5A5A5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFA5A5A5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA5A5A5"/>
+      </bottom>
+    </border>
+    <border>
       <top style="thin">
         <color rgb="FFA5A5A5"/>
       </top>
@@ -447,7 +465,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="101">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -575,7 +593,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf borderId="23" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="24" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
@@ -599,6 +617,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf borderId="13" fillId="0" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="23" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -641,7 +662,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf borderId="21" fillId="0" fontId="12" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="right" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="13" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -667,14 +688,23 @@
     <xf borderId="21" fillId="3" fontId="5" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf borderId="21" fillId="0" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="21" fillId="4" fontId="10" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf borderId="21" fillId="0" fontId="10" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="23" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="24" fillId="0" fontId="10" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="25" fillId="0" fontId="10" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf borderId="25" fillId="0" fontId="10" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="22" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -700,22 +730,16 @@
     <xf borderId="21" fillId="2" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf borderId="13" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="26" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="21" fillId="2" fontId="16" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="25" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="25" fillId="0" fontId="4" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="26" fillId="0" fontId="4" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -724,25 +748,25 @@
     <xf borderId="19" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="26" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="27" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="26" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="27" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="20" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="169" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="169" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="169" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="169" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -963,7 +987,8 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="1.71"/>
     <col customWidth="1" min="2" max="2" width="0.71"/>
-    <col customWidth="1" min="3" max="4" width="10.71"/>
+    <col customWidth="1" min="3" max="3" width="10.71"/>
+    <col customWidth="1" min="4" max="4" width="19.0"/>
     <col customWidth="1" min="5" max="5" width="0.71"/>
     <col customWidth="1" min="6" max="6" width="16.14"/>
     <col customWidth="1" min="7" max="7" width="15.57"/>
@@ -1230,7 +1255,7 @@
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="40"/>
       <c r="B8" s="41"/>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="51" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="43"/>
@@ -1264,10 +1289,10 @@
     <row r="9" ht="16.5" customHeight="1">
       <c r="A9" s="40"/>
       <c r="B9" s="41"/>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="52"/>
+      <c r="D9" s="53"/>
       <c r="E9" s="44"/>
       <c r="F9" s="45"/>
       <c r="G9" s="46"/>
@@ -1299,7 +1324,7 @@
       <c r="A10" s="40"/>
       <c r="B10" s="41"/>
       <c r="C10" s="38"/>
-      <c r="D10" s="52"/>
+      <c r="D10" s="53"/>
       <c r="E10" s="44"/>
       <c r="F10" s="45"/>
       <c r="G10" s="46"/>
@@ -1328,95 +1353,95 @@
       <c r="AD10" s="40"/>
     </row>
     <row r="11" ht="16.5" customHeight="1">
-      <c r="A11" s="53"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="55" t="s">
+      <c r="A11" s="54"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="58" t="str">
-        <f t="shared" ref="F11:G11" si="1">F7</f>
+      <c r="D11" s="57"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="59" t="str">
+        <f t="shared" ref="F11:G11" si="1">F8</f>
         <v/>
       </c>
-      <c r="G11" s="59" t="str">
+      <c r="G11" s="60" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H11" s="60"/>
-      <c r="I11" s="58" t="str">
-        <f t="shared" ref="I11:J11" si="2">I7</f>
+      <c r="H11" s="61"/>
+      <c r="I11" s="59" t="str">
+        <f t="shared" ref="I11:J11" si="2">I8</f>
         <v/>
       </c>
-      <c r="J11" s="59" t="str">
+      <c r="J11" s="60" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K11" s="60"/>
-      <c r="L11" s="58" t="str">
-        <f t="shared" ref="L11:M11" si="3">L7</f>
+      <c r="K11" s="61"/>
+      <c r="L11" s="59" t="str">
+        <f t="shared" ref="L11:M11" si="3">L8</f>
         <v/>
       </c>
-      <c r="M11" s="59" t="str">
+      <c r="M11" s="60" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N11" s="60"/>
-      <c r="O11" s="58" t="str">
-        <f t="shared" ref="O11:P11" si="4">O7</f>
+      <c r="N11" s="61"/>
+      <c r="O11" s="59" t="str">
+        <f t="shared" ref="O11:P11" si="4">O8</f>
         <v/>
       </c>
-      <c r="P11" s="59" t="str">
+      <c r="P11" s="60" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q11" s="60"/>
-      <c r="R11" s="58" t="str">
-        <f t="shared" ref="R11:S11" si="5">R7</f>
+      <c r="Q11" s="61"/>
+      <c r="R11" s="59" t="str">
+        <f t="shared" ref="R11:S11" si="5">R8</f>
         <v/>
       </c>
-      <c r="S11" s="59" t="str">
+      <c r="S11" s="60" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="T11" s="61"/>
-      <c r="U11" s="62"/>
-      <c r="V11" s="63"/>
-      <c r="W11" s="53"/>
-      <c r="X11" s="53"/>
-      <c r="Y11" s="53"/>
+      <c r="T11" s="62"/>
+      <c r="U11" s="63"/>
+      <c r="V11" s="64"/>
+      <c r="W11" s="54"/>
+      <c r="X11" s="54"/>
+      <c r="Y11" s="54"/>
       <c r="Z11" s="40"/>
       <c r="AA11" s="40"/>
       <c r="AB11" s="40"/>
-      <c r="AC11" s="53"/>
-      <c r="AD11" s="53"/>
+      <c r="AC11" s="54"/>
+      <c r="AD11" s="54"/>
     </row>
     <row r="12" ht="16.5" customHeight="1">
       <c r="A12" s="40"/>
       <c r="B12" s="41"/>
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="64" t="s">
+      <c r="D12" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="65"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="67"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="68"/>
       <c r="H12" s="47"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="70"/>
       <c r="K12" s="47"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="70"/>
       <c r="N12" s="47"/>
       <c r="O12" s="45"/>
-      <c r="P12" s="59"/>
+      <c r="P12" s="60"/>
       <c r="Q12" s="47"/>
       <c r="R12" s="45"/>
-      <c r="S12" s="59"/>
+      <c r="S12" s="60"/>
       <c r="T12" s="48"/>
-      <c r="U12" s="70"/>
+      <c r="U12" s="71"/>
       <c r="V12" s="50"/>
       <c r="W12" s="40"/>
       <c r="X12" s="40"/>
@@ -1424,8 +1449,8 @@
       <c r="Z12" s="40"/>
       <c r="AA12" s="40"/>
       <c r="AB12" s="40"/>
-      <c r="AC12" s="53"/>
-      <c r="AD12" s="53"/>
+      <c r="AC12" s="54"/>
+      <c r="AD12" s="54"/>
     </row>
     <row r="13" ht="16.5" customHeight="1">
       <c r="A13" s="40"/>
@@ -1434,9 +1459,9 @@
       <c r="D13" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="65"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="72"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="73"/>
       <c r="H13" s="47"/>
       <c r="I13" s="45"/>
       <c r="J13" s="46"/>
@@ -1468,9 +1493,9 @@
       <c r="D14" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="65"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="72"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="73"/>
       <c r="H14" s="47"/>
       <c r="I14" s="45"/>
       <c r="J14" s="46"/>
@@ -1499,12 +1524,12 @@
       <c r="A15" s="40"/>
       <c r="B15" s="41"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="45" t="s">
+      <c r="D15" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="65"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="72"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="73"/>
       <c r="H15" s="47"/>
       <c r="I15" s="45"/>
       <c r="J15" s="46"/>
@@ -1536,9 +1561,9 @@
       <c r="D16" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="65"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="72"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="73"/>
       <c r="H16" s="47"/>
       <c r="I16" s="45"/>
       <c r="J16" s="46"/>
@@ -1570,9 +1595,9 @@
       <c r="D17" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="65"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="72"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="73"/>
       <c r="H17" s="47"/>
       <c r="I17" s="45"/>
       <c r="J17" s="46"/>
@@ -1604,9 +1629,9 @@
       <c r="D18" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="65"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="72"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="73"/>
       <c r="H18" s="47"/>
       <c r="I18" s="45"/>
       <c r="J18" s="46"/>
@@ -1638,9 +1663,9 @@
       <c r="D19" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="65"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="72"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="73"/>
       <c r="H19" s="47"/>
       <c r="I19" s="45"/>
       <c r="J19" s="46"/>
@@ -1672,9 +1697,9 @@
       <c r="D20" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="65"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="72"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="73"/>
       <c r="H20" s="47"/>
       <c r="I20" s="45"/>
       <c r="J20" s="46"/>
@@ -1704,9 +1729,9 @@
       <c r="B21" s="41"/>
       <c r="C21" s="38"/>
       <c r="D21" s="45"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="72"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="73"/>
       <c r="H21" s="47"/>
       <c r="I21" s="45"/>
       <c r="J21" s="46"/>
@@ -1732,440 +1757,545 @@
       <c r="AD21" s="40"/>
     </row>
     <row r="22" ht="16.5" customHeight="1">
-      <c r="A22" s="53"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="55" t="s">
+      <c r="A22" s="54"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="56"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="58">
-        <f t="shared" ref="F22:G22" si="6">SUM(F12:F21)</f>
+      <c r="D22" s="57"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="59">
+        <f t="shared" ref="F22:G22" si="6">SUM(F13:F14,F16:F20)</f>
         <v>0</v>
       </c>
-      <c r="G22" s="58">
+      <c r="G22" s="75">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H22" s="60"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="60"/>
-      <c r="O22" s="58"/>
-      <c r="P22" s="59"/>
-      <c r="Q22" s="60"/>
-      <c r="R22" s="58"/>
-      <c r="S22" s="59"/>
-      <c r="T22" s="61"/>
-      <c r="U22" s="73"/>
-      <c r="V22" s="63"/>
-      <c r="W22" s="53"/>
-      <c r="X22" s="53"/>
-      <c r="Y22" s="53"/>
-      <c r="Z22" s="53"/>
-      <c r="AA22" s="53"/>
-      <c r="AB22" s="53"/>
-      <c r="AC22" s="53"/>
-      <c r="AD22" s="53"/>
-    </row>
-    <row r="23" ht="16.5" customHeight="1">
-      <c r="A23" s="53"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="74" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="56"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="58">
-        <f t="shared" ref="F23:G23" si="7">SUM(F11,F22)</f>
+      <c r="H22" s="61"/>
+      <c r="I22" s="59">
+        <f t="shared" ref="I22:J22" si="7">SUM(I13:I14,I16:I20)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="59">
+      <c r="J22" s="60">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H23" s="60"/>
-      <c r="I23" s="58">
-        <f t="shared" ref="I23:J23" si="8">SUM(I11,I22)</f>
+      <c r="K22" s="61"/>
+      <c r="L22" s="59">
+        <f t="shared" ref="L22:M22" si="8">SUM(L13:L14,L16:L20)</f>
         <v>0</v>
       </c>
-      <c r="J23" s="59">
+      <c r="M22" s="60">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K23" s="60"/>
-      <c r="L23" s="58">
-        <f t="shared" ref="L23:M23" si="9">SUM(L11,L22)</f>
+      <c r="N22" s="61"/>
+      <c r="O22" s="59">
+        <f t="shared" ref="O22:P22" si="9">SUM(O13:O14,O16:O20)</f>
         <v>0</v>
       </c>
-      <c r="M23" s="59">
+      <c r="P22" s="60">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="N23" s="60"/>
-      <c r="O23" s="58">
-        <f t="shared" ref="O23:P23" si="10">SUM(O11,O22)</f>
+      <c r="Q22" s="61"/>
+      <c r="R22" s="59">
+        <f t="shared" ref="R22:S22" si="10">SUM(R13:R14,R16:R20)</f>
         <v>0</v>
       </c>
-      <c r="P23" s="59">
+      <c r="S22" s="60">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Q23" s="60"/>
-      <c r="R23" s="58">
-        <f t="shared" ref="R23:S23" si="11">SUM(R11,R22)</f>
+      <c r="T22" s="62"/>
+      <c r="U22" s="76"/>
+      <c r="V22" s="64"/>
+      <c r="W22" s="54"/>
+      <c r="X22" s="54"/>
+      <c r="Y22" s="54"/>
+      <c r="Z22" s="54"/>
+      <c r="AA22" s="54"/>
+      <c r="AB22" s="54"/>
+      <c r="AC22" s="54"/>
+      <c r="AD22" s="54"/>
+    </row>
+    <row r="23" ht="16.5" customHeight="1">
+      <c r="A23" s="54"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="77" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="57"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="59">
+        <f t="shared" ref="F23:G23" si="11">SUM(F11,F22)</f>
         <v>0</v>
       </c>
-      <c r="S23" s="59">
+      <c r="G23" s="60">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="T23" s="61"/>
-      <c r="U23" s="73"/>
-      <c r="V23" s="63"/>
-      <c r="W23" s="53"/>
-      <c r="X23" s="53"/>
-      <c r="Y23" s="53"/>
-      <c r="Z23" s="53"/>
-      <c r="AA23" s="53"/>
-      <c r="AB23" s="53"/>
-      <c r="AC23" s="53"/>
-      <c r="AD23" s="53"/>
-    </row>
-    <row r="24" ht="16.5" customHeight="1">
-      <c r="A24" s="53"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="55" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="75">
-        <v>1.62</v>
-      </c>
-      <c r="E24" s="57"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="60"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="60"/>
-      <c r="O24" s="58"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="60"/>
-      <c r="R24" s="58"/>
-      <c r="S24" s="59"/>
-      <c r="T24" s="61"/>
-      <c r="U24" s="73"/>
-      <c r="V24" s="63"/>
-      <c r="W24" s="53"/>
-      <c r="X24" s="53"/>
-      <c r="Y24" s="53"/>
-      <c r="Z24" s="53"/>
-      <c r="AA24" s="53"/>
-      <c r="AB24" s="53"/>
-      <c r="AC24" s="53"/>
-      <c r="AD24" s="53"/>
-    </row>
-    <row r="25" ht="16.5" customHeight="1">
-      <c r="A25" s="53"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="75">
-        <v>0.0</v>
-      </c>
-      <c r="E25" s="57"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="59"/>
-      <c r="N25" s="60"/>
-      <c r="O25" s="58"/>
-      <c r="P25" s="59"/>
-      <c r="Q25" s="60"/>
-      <c r="R25" s="58"/>
-      <c r="S25" s="59"/>
-      <c r="T25" s="61"/>
-      <c r="U25" s="73"/>
-      <c r="V25" s="63"/>
-      <c r="W25" s="53"/>
-      <c r="X25" s="53"/>
-      <c r="Y25" s="53"/>
-      <c r="Z25" s="53"/>
-      <c r="AA25" s="53"/>
-      <c r="AB25" s="53"/>
-      <c r="AC25" s="53"/>
-      <c r="AD25" s="53"/>
-    </row>
-    <row r="26" ht="16.5" customHeight="1">
-      <c r="A26" s="53"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="75">
-        <v>32.92</v>
-      </c>
-      <c r="E26" s="57"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="59"/>
-      <c r="N26" s="60"/>
-      <c r="O26" s="58"/>
-      <c r="P26" s="59"/>
-      <c r="Q26" s="60"/>
-      <c r="R26" s="58"/>
-      <c r="S26" s="59"/>
-      <c r="T26" s="61"/>
-      <c r="U26" s="73"/>
-      <c r="V26" s="63"/>
-      <c r="W26" s="53"/>
-      <c r="X26" s="53"/>
-      <c r="Y26" s="53"/>
-      <c r="Z26" s="53"/>
-      <c r="AA26" s="53"/>
-      <c r="AB26" s="53"/>
-      <c r="AC26" s="53"/>
-      <c r="AD26" s="53"/>
-    </row>
-    <row r="27" ht="16.5" customHeight="1">
-      <c r="A27" s="53"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="58"/>
-      <c r="M27" s="69"/>
-      <c r="N27" s="60"/>
-      <c r="O27" s="58"/>
-      <c r="P27" s="59"/>
-      <c r="Q27" s="60"/>
-      <c r="R27" s="58"/>
-      <c r="S27" s="69"/>
-      <c r="T27" s="61"/>
-      <c r="U27" s="62"/>
-      <c r="V27" s="63"/>
-      <c r="W27" s="53"/>
-      <c r="X27" s="53"/>
-      <c r="Y27" s="53"/>
-      <c r="Z27" s="53"/>
-      <c r="AA27" s="53"/>
-      <c r="AB27" s="53"/>
-      <c r="AC27" s="53"/>
-      <c r="AD27" s="53"/>
-    </row>
-    <row r="28" ht="16.5" customHeight="1">
-      <c r="A28" s="53"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="74"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="60"/>
-      <c r="L28" s="58"/>
-      <c r="M28" s="59"/>
-      <c r="N28" s="60"/>
-      <c r="O28" s="58"/>
-      <c r="P28" s="59"/>
-      <c r="Q28" s="60"/>
-      <c r="R28" s="58"/>
-      <c r="S28" s="59"/>
-      <c r="T28" s="61"/>
-      <c r="U28" s="76"/>
-      <c r="V28" s="63"/>
-      <c r="W28" s="53"/>
-      <c r="X28" s="53"/>
-      <c r="Y28" s="53"/>
-      <c r="Z28" s="53"/>
-      <c r="AA28" s="53"/>
-      <c r="AB28" s="53"/>
-      <c r="AC28" s="53"/>
-      <c r="AD28" s="53"/>
-    </row>
-    <row r="29" ht="16.5" customHeight="1">
-      <c r="A29" s="53"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="74"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="59"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="58"/>
-      <c r="P29" s="59"/>
-      <c r="Q29" s="60"/>
-      <c r="R29" s="58"/>
-      <c r="S29" s="59"/>
-      <c r="T29" s="61"/>
-      <c r="U29" s="73"/>
-      <c r="V29" s="63"/>
-      <c r="W29" s="53"/>
-      <c r="X29" s="53"/>
-      <c r="Y29" s="53"/>
-      <c r="Z29" s="53"/>
-      <c r="AA29" s="53"/>
-      <c r="AB29" s="53"/>
-      <c r="AC29" s="53"/>
-      <c r="AD29" s="53"/>
-    </row>
-    <row r="30" ht="16.5" customHeight="1">
-      <c r="A30" s="53"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="74"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="60"/>
-      <c r="L30" s="58"/>
-      <c r="M30" s="59"/>
-      <c r="N30" s="60"/>
-      <c r="O30" s="77"/>
-      <c r="P30" s="78"/>
-      <c r="Q30" s="60"/>
-      <c r="R30" s="58"/>
-      <c r="S30" s="59"/>
-      <c r="T30" s="61"/>
-      <c r="U30" s="73"/>
-      <c r="V30" s="63"/>
-      <c r="W30" s="53"/>
-      <c r="X30" s="53"/>
-      <c r="Y30" s="53"/>
-      <c r="Z30" s="53"/>
-      <c r="AA30" s="53"/>
-      <c r="AB30" s="53"/>
-      <c r="AC30" s="53"/>
-      <c r="AD30" s="53"/>
-    </row>
-    <row r="31" ht="19.5" customHeight="1">
-      <c r="A31" s="79"/>
-      <c r="B31" s="80"/>
-      <c r="C31" s="81" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="56"/>
-      <c r="E31" s="82"/>
-      <c r="F31" s="83">
-        <f t="shared" ref="F31:G31" si="12">SUM(F23,F24,F25,F26)</f>
+      <c r="H23" s="61"/>
+      <c r="I23" s="59">
+        <f t="shared" ref="I23:J23" si="12">SUM(I11,I22)</f>
         <v>0</v>
       </c>
-      <c r="G31" s="83">
+      <c r="J23" s="60">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="H31" s="84"/>
-      <c r="I31" s="83"/>
-      <c r="J31" s="83"/>
-      <c r="K31" s="84"/>
-      <c r="L31" s="83"/>
-      <c r="M31" s="83"/>
-      <c r="N31" s="84"/>
-      <c r="O31" s="83"/>
-      <c r="P31" s="83"/>
-      <c r="Q31" s="84"/>
-      <c r="R31" s="83"/>
-      <c r="S31" s="83"/>
-      <c r="T31" s="85"/>
-      <c r="U31" s="86"/>
-      <c r="V31" s="87"/>
-      <c r="W31" s="79"/>
-      <c r="X31" s="79"/>
-      <c r="Y31" s="79"/>
-      <c r="Z31" s="79"/>
-      <c r="AA31" s="79"/>
-      <c r="AB31" s="79"/>
-      <c r="AC31" s="79"/>
-      <c r="AD31" s="79"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="59">
+        <f t="shared" ref="L23:M23" si="13">SUM(L11,L22)</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="60">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="61"/>
+      <c r="O23" s="59">
+        <f t="shared" ref="O23:P23" si="14">SUM(O11,O22)</f>
+        <v>0</v>
+      </c>
+      <c r="P23" s="60">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="61"/>
+      <c r="R23" s="59">
+        <f t="shared" ref="R23:S23" si="15">SUM(R11,R22)</f>
+        <v>0</v>
+      </c>
+      <c r="S23" s="60">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="T23" s="62"/>
+      <c r="U23" s="76"/>
+      <c r="V23" s="64"/>
+      <c r="W23" s="54"/>
+      <c r="X23" s="54"/>
+      <c r="Y23" s="54"/>
+      <c r="Z23" s="54"/>
+      <c r="AA23" s="54"/>
+      <c r="AB23" s="54"/>
+      <c r="AC23" s="54"/>
+      <c r="AD23" s="54"/>
+    </row>
+    <row r="24" ht="16.5" customHeight="1">
+      <c r="A24" s="54"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="78">
+        <v>1.62</v>
+      </c>
+      <c r="E24" s="58"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="60"/>
+      <c r="N24" s="61"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="60"/>
+      <c r="Q24" s="61"/>
+      <c r="R24" s="59"/>
+      <c r="S24" s="60"/>
+      <c r="T24" s="62"/>
+      <c r="U24" s="76"/>
+      <c r="V24" s="64"/>
+      <c r="W24" s="54"/>
+      <c r="X24" s="54"/>
+      <c r="Y24" s="54"/>
+      <c r="Z24" s="54"/>
+      <c r="AA24" s="54"/>
+      <c r="AB24" s="54"/>
+      <c r="AC24" s="54"/>
+      <c r="AD24" s="54"/>
+    </row>
+    <row r="25" ht="16.5" customHeight="1">
+      <c r="A25" s="54"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="78">
+        <v>0.0</v>
+      </c>
+      <c r="E25" s="58"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="60"/>
+      <c r="N25" s="61"/>
+      <c r="O25" s="59"/>
+      <c r="P25" s="60"/>
+      <c r="Q25" s="61"/>
+      <c r="R25" s="59"/>
+      <c r="S25" s="60"/>
+      <c r="T25" s="62"/>
+      <c r="U25" s="76"/>
+      <c r="V25" s="64"/>
+      <c r="W25" s="54"/>
+      <c r="X25" s="54"/>
+      <c r="Y25" s="54"/>
+      <c r="Z25" s="54"/>
+      <c r="AA25" s="54"/>
+      <c r="AB25" s="54"/>
+      <c r="AC25" s="54"/>
+      <c r="AD25" s="54"/>
+    </row>
+    <row r="26" ht="16.5" customHeight="1">
+      <c r="A26" s="54"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="79" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="58"/>
+      <c r="F26" s="59">
+        <f t="shared" ref="F26:G26" si="16">F22*0.3292</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="60">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="61"/>
+      <c r="I26" s="59">
+        <f t="shared" ref="I26:T26" si="17">I22*0.3292</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="60">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="60">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="60">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="60">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="60">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="60">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="60">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="60">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="60">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="S26" s="60">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T26" s="60">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U26" s="76"/>
+      <c r="V26" s="64"/>
+      <c r="W26" s="54"/>
+      <c r="X26" s="54"/>
+      <c r="Y26" s="54"/>
+      <c r="Z26" s="54"/>
+      <c r="AA26" s="54"/>
+      <c r="AB26" s="54"/>
+      <c r="AC26" s="54"/>
+      <c r="AD26" s="54"/>
+    </row>
+    <row r="27" ht="16.5" customHeight="1">
+      <c r="A27" s="54"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="70"/>
+      <c r="N27" s="61"/>
+      <c r="O27" s="59"/>
+      <c r="P27" s="60"/>
+      <c r="Q27" s="61"/>
+      <c r="R27" s="59"/>
+      <c r="S27" s="70"/>
+      <c r="T27" s="62"/>
+      <c r="U27" s="63"/>
+      <c r="V27" s="64"/>
+      <c r="W27" s="54"/>
+      <c r="X27" s="54"/>
+      <c r="Y27" s="54"/>
+      <c r="Z27" s="54"/>
+      <c r="AA27" s="54"/>
+      <c r="AB27" s="54"/>
+      <c r="AC27" s="54"/>
+      <c r="AD27" s="54"/>
+    </row>
+    <row r="28" ht="16.5" customHeight="1">
+      <c r="A28" s="54"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="60"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="59"/>
+      <c r="M28" s="60"/>
+      <c r="N28" s="61"/>
+      <c r="O28" s="59"/>
+      <c r="P28" s="60"/>
+      <c r="Q28" s="61"/>
+      <c r="R28" s="59"/>
+      <c r="S28" s="60"/>
+      <c r="T28" s="62"/>
+      <c r="U28" s="80"/>
+      <c r="V28" s="64"/>
+      <c r="W28" s="54"/>
+      <c r="X28" s="54"/>
+      <c r="Y28" s="54"/>
+      <c r="Z28" s="54"/>
+      <c r="AA28" s="54"/>
+      <c r="AB28" s="54"/>
+      <c r="AC28" s="54"/>
+      <c r="AD28" s="54"/>
+    </row>
+    <row r="29" ht="16.5" customHeight="1">
+      <c r="A29" s="54"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="59"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="59"/>
+      <c r="P29" s="60"/>
+      <c r="Q29" s="61"/>
+      <c r="R29" s="59"/>
+      <c r="S29" s="60"/>
+      <c r="T29" s="62"/>
+      <c r="U29" s="76"/>
+      <c r="V29" s="64"/>
+      <c r="W29" s="54"/>
+      <c r="X29" s="54"/>
+      <c r="Y29" s="54"/>
+      <c r="Z29" s="54"/>
+      <c r="AA29" s="54"/>
+      <c r="AB29" s="54"/>
+      <c r="AC29" s="54"/>
+      <c r="AD29" s="54"/>
+    </row>
+    <row r="30" ht="16.5" customHeight="1">
+      <c r="A30" s="54"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="59"/>
+      <c r="M30" s="60"/>
+      <c r="N30" s="61"/>
+      <c r="O30" s="81"/>
+      <c r="P30" s="82"/>
+      <c r="Q30" s="61"/>
+      <c r="R30" s="59"/>
+      <c r="S30" s="60"/>
+      <c r="T30" s="62"/>
+      <c r="U30" s="76"/>
+      <c r="V30" s="64"/>
+      <c r="W30" s="54"/>
+      <c r="X30" s="54"/>
+      <c r="Y30" s="54"/>
+      <c r="Z30" s="54"/>
+      <c r="AA30" s="54"/>
+      <c r="AB30" s="54"/>
+      <c r="AC30" s="54"/>
+      <c r="AD30" s="54"/>
+    </row>
+    <row r="31" ht="19.5" customHeight="1">
+      <c r="A31" s="83"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="85" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="57"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="87">
+        <f t="shared" ref="F31:T31" si="18">SUM(F23,F24,F25,F26)</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="87">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="87">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="87">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="87">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="87">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="87">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="87">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="87">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="87">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="87">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="87">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R31" s="87">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="S31" s="87">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="T31" s="87">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U31" s="87"/>
+      <c r="V31" s="88"/>
+      <c r="W31" s="83"/>
+      <c r="X31" s="83"/>
+      <c r="Y31" s="83"/>
+      <c r="Z31" s="83"/>
+      <c r="AA31" s="83"/>
+      <c r="AB31" s="83"/>
+      <c r="AC31" s="83"/>
+      <c r="AD31" s="83"/>
     </row>
     <row r="32" ht="9.75" customHeight="1">
-      <c r="A32" s="79"/>
-      <c r="B32" s="80"/>
-      <c r="C32" s="88"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="85"/>
-      <c r="F32" s="89"/>
-      <c r="G32" s="89"/>
-      <c r="H32" s="90"/>
-      <c r="I32" s="89"/>
-      <c r="J32" s="89"/>
-      <c r="K32" s="90"/>
-      <c r="L32" s="89"/>
-      <c r="M32" s="89"/>
-      <c r="N32" s="90"/>
-      <c r="O32" s="89"/>
-      <c r="P32" s="89"/>
-      <c r="Q32" s="90"/>
-      <c r="R32" s="89"/>
-      <c r="S32" s="89"/>
-      <c r="T32" s="85"/>
-      <c r="U32" s="85"/>
-      <c r="V32" s="87"/>
-      <c r="W32" s="79"/>
-      <c r="X32" s="79"/>
-      <c r="Y32" s="79"/>
-      <c r="Z32" s="79"/>
-      <c r="AA32" s="79"/>
-      <c r="AB32" s="79"/>
-      <c r="AC32" s="79"/>
-      <c r="AD32" s="79"/>
+      <c r="A32" s="83"/>
+      <c r="B32" s="84"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="91"/>
+      <c r="G32" s="91"/>
+      <c r="H32" s="92"/>
+      <c r="I32" s="91"/>
+      <c r="J32" s="91"/>
+      <c r="K32" s="92"/>
+      <c r="L32" s="91"/>
+      <c r="M32" s="91"/>
+      <c r="N32" s="92"/>
+      <c r="O32" s="91"/>
+      <c r="P32" s="91"/>
+      <c r="Q32" s="92"/>
+      <c r="R32" s="91"/>
+      <c r="S32" s="91"/>
+      <c r="T32" s="90"/>
+      <c r="U32" s="90"/>
+      <c r="V32" s="88"/>
+      <c r="W32" s="83"/>
+      <c r="X32" s="83"/>
+      <c r="Y32" s="83"/>
+      <c r="Z32" s="83"/>
+      <c r="AA32" s="83"/>
+      <c r="AB32" s="83"/>
+      <c r="AC32" s="83"/>
+      <c r="AD32" s="83"/>
     </row>
     <row r="33" ht="9.75" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="91"/>
-      <c r="C33" s="92"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="93"/>
-      <c r="F33" s="93"/>
-      <c r="G33" s="93"/>
-      <c r="H33" s="93"/>
-      <c r="I33" s="93"/>
-      <c r="J33" s="93"/>
-      <c r="K33" s="93"/>
-      <c r="L33" s="93"/>
-      <c r="M33" s="93"/>
-      <c r="N33" s="93"/>
-      <c r="O33" s="93"/>
-      <c r="P33" s="93"/>
-      <c r="Q33" s="93"/>
-      <c r="R33" s="93"/>
-      <c r="S33" s="93"/>
-      <c r="T33" s="93"/>
-      <c r="U33" s="93"/>
-      <c r="V33" s="94"/>
+      <c r="B33" s="93"/>
+      <c r="C33" s="94"/>
+      <c r="D33" s="94"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="95"/>
+      <c r="G33" s="95"/>
+      <c r="H33" s="95"/>
+      <c r="I33" s="95"/>
+      <c r="J33" s="95"/>
+      <c r="K33" s="95"/>
+      <c r="L33" s="95"/>
+      <c r="M33" s="95"/>
+      <c r="N33" s="95"/>
+      <c r="O33" s="95"/>
+      <c r="P33" s="95"/>
+      <c r="Q33" s="95"/>
+      <c r="R33" s="95"/>
+      <c r="S33" s="95"/>
+      <c r="T33" s="95"/>
+      <c r="U33" s="95"/>
+      <c r="V33" s="96"/>
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
@@ -2211,17 +2341,17 @@
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="95"/>
-      <c r="E35" s="96"/>
-      <c r="F35" s="97"/>
-      <c r="H35" s="98"/>
-      <c r="I35" s="97"/>
-      <c r="K35" s="98"/>
-      <c r="L35" s="97"/>
-      <c r="N35" s="98"/>
-      <c r="O35" s="97"/>
-      <c r="Q35" s="98"/>
-      <c r="R35" s="97"/>
+      <c r="D35" s="97"/>
+      <c r="E35" s="98"/>
+      <c r="F35" s="99"/>
+      <c r="H35" s="100"/>
+      <c r="I35" s="99"/>
+      <c r="K35" s="100"/>
+      <c r="L35" s="99"/>
+      <c r="N35" s="100"/>
+      <c r="O35" s="99"/>
+      <c r="Q35" s="100"/>
+      <c r="R35" s="99"/>
       <c r="T35" s="3"/>
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
